--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_563.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_563.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33260-d82618-Reviews-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Westminster-North.h996167.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_563.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_563.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,344 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r460231488-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>33260</t>
+  </si>
+  <si>
+    <t>82618</t>
+  </si>
+  <si>
+    <t>460231488</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>FYI</t>
+  </si>
+  <si>
+    <t>Quick and easy check in. girls at the front desk are kind no hassles. Overall stay ok dont get room downstairs cuz people above you u can hear walking thumping sounds so it gets annoying through out the night.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r459657863-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>459657863</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Nice, Clean Accomodation</t>
+  </si>
+  <si>
+    <t>After reading the reviews, I had mixed feelings. I am glad I took the plunge. This hotel is absolutely fine. Nice updated and clean room. My experience was pleasant. The front desk staff was very friendly and helpful. I had no complaints whatsoever. I would recommend this hotel with utmost confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r412503029-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>412503029</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best motel 6 I've stayed at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff and manager are very friendly and polite. The rooms and outside are clean and well maintained. Your close to everything gas food and freeways. I definitely recommend staying here vs others for a quiet clean comfortable stay. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r364808487-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>364808487</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Violated and Unsatisfactory</t>
+  </si>
+  <si>
+    <t>The only reason I decided to give this Motel 6 two stars instead of one is bc of the seemingly new renovations and low price. However, I don't think I'll ever reserve a room for my fiance and myself here again! Our first stay we reserved a room for a single night and requested a late checkout and were given until 1 PM. I then reserved a room for a single night about a week later requesting a late checkout and was told 12 PM. That was a little surprising, but I assumed that the guidelines may have changed bc things like that happen. I work graveyard shifts and turned in at around 3 AM and woke up to the phone ringing at 11 AM as a reminder that checkout was 11AM! I groggily requested a late checkout once again and was told we had until 11:30! WHAT?! Once I explained that we were already given until noon the female manager (this is who she described herself to be) hung up the phone. I called back and told her that I would just pay for another night and would be at the front desk in about 15 minutes. Minutes later she was POUNDING on the door and YELLING for us to open up. (I know this sounds like an exaggeration, but I assure you, it is not.) We were a little disoriented and as I scrambled to put on some...The only reason I decided to give this Motel 6 two stars instead of one is bc of the seemingly new renovations and low price. However, I don't think I'll ever reserve a room for my fiance and myself here again! Our first stay we reserved a room for a single night and requested a late checkout and were given until 1 PM. I then reserved a room for a single night about a week later requesting a late checkout and was told 12 PM. That was a little surprising, but I assumed that the guidelines may have changed bc things like that happen. I work graveyard shifts and turned in at around 3 AM and woke up to the phone ringing at 11 AM as a reminder that checkout was 11AM! I groggily requested a late checkout once again and was told we had until 11:30! WHAT?! Once I explained that we were already given until noon the female manager (this is who she described herself to be) hung up the phone. I called back and told her that I would just pay for another night and would be at the front desk in about 15 minutes. Minutes later she was POUNDING on the door and YELLING for us to open up. (I know this sounds like an exaggeration, but I assure you, it is not.) We were a little disoriented and as I scrambled to put on some clothes, I asked her to give me a second to do so; she literally BARGED IN. (We had the chain on the door so she was only able to open it about an inch. This seemed to make her angry.) She then began to shout for us to "open up now!" I'm not sure what we did to enrage this woman, but this was so incredibly out of line! Now, I'm sure that there have been instances in which her behavior was warranted, but this was not one. She went from 0 to 100. And for what? I still don't know. As if our experience couldn't have been worse, once I got home, I discovered that my car had been robbed in their parking lot! Ugh. Replacing everything that was stolen cost me hundreds of dollars. =[So, all in all, I would say: if you're thinking of staying here, stay at your own risk! You've been warned..****Oh yeah, WiFi is $2.99 a night per device. Weak signal.// No hair blow dryer// No iron// dinky towels// No shampoo or conditioner// I found an old, used toothbrush in the bathroom.. ewMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The only reason I decided to give this Motel 6 two stars instead of one is bc of the seemingly new renovations and low price. However, I don't think I'll ever reserve a room for my fiance and myself here again! Our first stay we reserved a room for a single night and requested a late checkout and were given until 1 PM. I then reserved a room for a single night about a week later requesting a late checkout and was told 12 PM. That was a little surprising, but I assumed that the guidelines may have changed bc things like that happen. I work graveyard shifts and turned in at around 3 AM and woke up to the phone ringing at 11 AM as a reminder that checkout was 11AM! I groggily requested a late checkout once again and was told we had until 11:30! WHAT?! Once I explained that we were already given until noon the female manager (this is who she described herself to be) hung up the phone. I called back and told her that I would just pay for another night and would be at the front desk in about 15 minutes. Minutes later she was POUNDING on the door and YELLING for us to open up. (I know this sounds like an exaggeration, but I assure you, it is not.) We were a little disoriented and as I scrambled to put on some...The only reason I decided to give this Motel 6 two stars instead of one is bc of the seemingly new renovations and low price. However, I don't think I'll ever reserve a room for my fiance and myself here again! Our first stay we reserved a room for a single night and requested a late checkout and were given until 1 PM. I then reserved a room for a single night about a week later requesting a late checkout and was told 12 PM. That was a little surprising, but I assumed that the guidelines may have changed bc things like that happen. I work graveyard shifts and turned in at around 3 AM and woke up to the phone ringing at 11 AM as a reminder that checkout was 11AM! I groggily requested a late checkout once again and was told we had until 11:30! WHAT?! Once I explained that we were already given until noon the female manager (this is who she described herself to be) hung up the phone. I called back and told her that I would just pay for another night and would be at the front desk in about 15 minutes. Minutes later she was POUNDING on the door and YELLING for us to open up. (I know this sounds like an exaggeration, but I assure you, it is not.) We were a little disoriented and as I scrambled to put on some clothes, I asked her to give me a second to do so; she literally BARGED IN. (We had the chain on the door so she was only able to open it about an inch. This seemed to make her angry.) She then began to shout for us to "open up now!" I'm not sure what we did to enrage this woman, but this was so incredibly out of line! Now, I'm sure that there have been instances in which her behavior was warranted, but this was not one. She went from 0 to 100. And for what? I still don't know. As if our experience couldn't have been worse, once I got home, I discovered that my car had been robbed in their parking lot! Ugh. Replacing everything that was stolen cost me hundreds of dollars. =[So, all in all, I would say: if you're thinking of staying here, stay at your own risk! You've been warned..****Oh yeah, WiFi is $2.99 a night per device. Weak signal.// No hair blow dryer// No iron// dinky towels// No shampoo or conditioner// I found an old, used toothbrush in the bathroom.. ewMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r360795297-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>360795297</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I decided to try this place due to great reviews I saw . The staff was great and helped me with every question I asked . There is a subway and Starbucks next door. Also a 24 spiers. I wouldn't mind staying here again. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r360466415-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>360466415</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Great area motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent customer service and WiFi service. No interruptions and clean rooms. Close to freeway and wake up call accurate when needed. Front desk is friendly and always smiling. Well informed. Will stay here again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r251681951-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>251681951</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>WORST MOTEL6 EVER</t>
+  </si>
+  <si>
+    <t>The place smelled horrible like pea everywhere outside. One of the staff members named Anna has the worst attude. One of her comments were and I quote "You are a visitor in my house, my rules." This was told to a woman who was disabled with a walker and wanted to put a microwave in her room cause it was hard for her to walk. I was in the office when she told the old woman that. On top of everything else there were fights and arguments that all hours of the night. So don't expect to sleep. I saw people selling drugs, people would walk up to me asking if I knew where to get drugs, and people in the parking lot doing drugs. I had to call the police cause some woman was using my car hood to snort lines off of. If you want a family friendly Motel6 it's not this one. But the Stanton Motel6 is a much better. I hope they clean this motel up cause I will never go back to this one. They are losing repeat costumers.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Westminster North, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>The place smelled horrible like pea everywhere outside. One of the staff members named Anna has the worst attude. One of her comments were and I quote "You are a visitor in my house, my rules." This was told to a woman who was disabled with a walker and wanted to put a microwave in her room cause it was hard for her to walk. I was in the office when she told the old woman that. On top of everything else there were fights and arguments that all hours of the night. So don't expect to sleep. I saw people selling drugs, people would walk up to me asking if I knew where to get drugs, and people in the parking lot doing drugs. I had to call the police cause some woman was using my car hood to snort lines off of. If you want a family friendly Motel6 it's not this one. But the Stanton Motel6 is a much better. I hope they clean this motel up cause I will never go back to this one. They are losing repeat costumers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r228981116-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>228981116</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Typical M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old, well used, cheap, locals residing here, def a bit sketchy but it was quiet at night. Probably not a great place for the kids. Stayed here Sunday to Monday. 3 restaurants and a bar and a liquor store across the street. Convenient to retail shopping within a few blocks. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r206201458-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>206201458</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Cause of all my headaches.</t>
+  </si>
+  <si>
+    <t>I booked a room over travelocity thinking everything was okay. When I got there the clerk asked if I reserved a room, I told her yes. I checked in, went straight to my room. I then checked my account balance on my card and realized that I had more money taken out than what should've been. Come to find out the clerk charged me twice for the same reservation. After what felt like endless minutes, it took 2 hours for the company to finally give me my refund for the money they took. Which I will NOT be getting back until Tuesday or Wednesday. Not only that but if you want to sight see you have to drive 30-45 miles in evwey direction just to see what California has to offer. The location was terrible. I can defiantly say this was the most biggest pain my butt. So if you decide to book this hotel, make sure sight seeing is not on your list because you'll be spending hours driving back and forth.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room over travelocity thinking everything was okay. When I got there the clerk asked if I reserved a room, I told her yes. I checked in, went straight to my room. I then checked my account balance on my card and realized that I had more money taken out than what should've been. Come to find out the clerk charged me twice for the same reservation. After what felt like endless minutes, it took 2 hours for the company to finally give me my refund for the money they took. Which I will NOT be getting back until Tuesday or Wednesday. Not only that but if you want to sight see you have to drive 30-45 miles in evwey direction just to see what California has to offer. The location was terrible. I can defiantly say this was the most biggest pain my butt. So if you decide to book this hotel, make sure sight seeing is not on your list because you'll be spending hours driving back and forth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r154915143-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>154915143</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Got linens?</t>
+  </si>
+  <si>
+    <t>This place is super cute on the outside. Pretty building, nice poolside courtyard. However, the rooms were lacking. The first thing I noticed was that the bedspread was riddled with holes and tears. It honestly belonged in the trash. The bathroom smelled like hot feet. Oh yeah, and there was no clock in the room. The basin in the sink was cracked and yucky. The television was about thirty years old. Eew.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r136980606-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>136980606</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>My husband and I had to make a last minute trip to Orange County and so began our search for a hotel/motel for that same night. Our first choices were all booked, so we began looking for what was available...we knew we had a chance with motel 6 and so based on the current reviews for this motel, we decided to call and reserve. We were pleasantly surprised! Althought not in the best area (but you can't really tell), the staff was very friendly, quiet for the most part (during the day you can hear kids in the pool but no big deal-defintely quiet at night and in the morning) and VERY CLEAN! Bathroom looked like it was thoroughly cleaned. The sheets on the bed were clean and neat.There were plenty of families as guests so it did not seem like a shady motel at all. Add the value of the price...way better than other motel 6 previously stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My husband and I had to make a last minute trip to Orange County and so began our search for a hotel/motel for that same night. Our first choices were all booked, so we began looking for what was available...we knew we had a chance with motel 6 and so based on the current reviews for this motel, we decided to call and reserve. We were pleasantly surprised! Althought not in the best area (but you can't really tell), the staff was very friendly, quiet for the most part (during the day you can hear kids in the pool but no big deal-defintely quiet at night and in the morning) and VERY CLEAN! Bathroom looked like it was thoroughly cleaned. The sheets on the bed were clean and neat.There were plenty of families as guests so it did not seem like a shady motel at all. Add the value of the price...way better than other motel 6 previously stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r121969718-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>121969718</t>
+  </si>
+  <si>
+    <t>12/21/2011</t>
+  </si>
+  <si>
+    <t>Lacks professional management skills and customer service</t>
+  </si>
+  <si>
+    <t>Clean rooms when they remember to clean them and when you being to there attention that they forgot yours that day , your a bad customer....its ok the let every drug addict and hooker that the surrrounding motels won't rent to and give them there own little area in the back to operate but when you cut your finger and ask for a bandaid they five you a card with risk managements phone number and 86 you from there property...it ok  terrible policies and many unhappy customers ....more to follow.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r104084469-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>104084469</t>
+  </si>
+  <si>
+    <t>04/14/2011</t>
+  </si>
+  <si>
+    <t>Not bad for the money</t>
+  </si>
+  <si>
+    <t>I dont think this was the best stay I had at a motel, but it wasn't bad for the money. Friendly service, clean pool,  good price. It was in a good location. No bugs in my room.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r102923403-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>102923403</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>drity drity drity</t>
+  </si>
+  <si>
+    <t>This place was gross there was a drity towel under my bed it smelled and on top of it was all the freeway noise . i would not stay here again the staff also didnt seem to friendly .</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r97625531-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>97625531</t>
+  </si>
+  <si>
+    <t>02/22/2011</t>
+  </si>
+  <si>
+    <t>Quiet, friendly and clean</t>
+  </si>
+  <si>
+    <t>Staff is very helpful and friendly, easy to find, very clean rooms and realy quiet, also has free wireless internet, have been to this site multiple times and everyone makes my wife and myself feel right at home.We stop here for our weekend trips to the beach, just five min to beach, love this place.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r89955772-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>89955772</t>
+  </si>
+  <si>
+    <t>12/15/2010</t>
+  </si>
+  <si>
+    <t>this motel 6 really changed the way i look at getting a motel room as opposed to a hotel room.</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this motel six. the staff is very friendly and helpful. the rooms are clean and its a pleasant enviroment there. I am a bit surprised that I could get such great service at such a low price. I would recomend this motel 6 to anyone staying in the westminster area.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r8347743-Motel_6_Westminster_North-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>8347743</t>
+  </si>
+  <si>
+    <t>08/02/2007</t>
+  </si>
+  <si>
+    <t>Hmmmmmmmmmmmmmmmm....;).</t>
+  </si>
+  <si>
+    <t>We picked this Motel 6 because it was the closest to Seal Beach (with the scary exception of the Long Beach Motel6).We had never stayed there before and the exterior was clean &amp; nice.It was a good feeling because we booked 3 nights there (also saved a few $ by going online :)
+The check-in staff were friendly and no problems with our reservation,price,etc., and they let us check in early.
+We were really surprised when we entered the room,it was clean and the towels were wrapped like at a 4-5 star hotel,and the toilet paper had the "v" fold.My wife really liked that it had a bathtub for our girls and we even used it a couple times(very nice after a day at the beach).It didn't have central air conditioning,which we were grateful to have the older individual a/c as they seem to work better(especially wth this very humid summer we are having).
+Now for the down side...We had a room by the street,which was fine since we like easy access to our car(for surfboards &amp; beach gear etc).Usually Motel6 has parking right in front of your room,but this one has it across from it.So,many trips back and forth.
+And then...around 2am we heard a strange noise like ice cracking or glass slowly breaking.My husband checked outside but didn't notice anything.In the morning he realized someone had shot out ours and 6 other room's windows with a BB gun!They...We picked this Motel 6 because it was the closest to Seal Beach (with the scary exception of the Long Beach Motel6).We had never stayed there before and the exterior was clean &amp; nice.It was a good feeling because we booked 3 nights there (also saved a few $ by going online :)The check-in staff were friendly and no problems with our reservation,price,etc., and they let us check in early.We were really surprised when we entered the room,it was clean and the towels were wrapped like at a 4-5 star hotel,and the toilet paper had the "v" fold.My wife really liked that it had a bathtub for our girls and we even used it a couple times(very nice after a day at the beach).It didn't have central air conditioning,which we were grateful to have the older individual a/c as they seem to work better(especially wth this very humid summer we are having).Now for the down side...We had a room by the street,which was fine since we like easy access to our car(for surfboards &amp; beach gear etc).Usually Motel6 has parking right in front of your room,but this one has it across from it.So,many trips back and forth.And then...around 2am we heard a strange noise like ice cracking or glass slowly breaking.My husband checked outside but didn't notice anything.In the morning he realized someone had shot out ours and 6 other room's windows with a BB gun!They didn't penetrate both layers of glass thankfully,but kind of scary!Hubby went to the front desk and told them about it.They cleaned another room quickly for us,and it was by the pool in the inside courtyard.We were impressed that they acted so quickly without us even asking for another room(although we would have gotten to it!)It was nice having a room with a view of the pool.The pool had a slight tinge of green,but we were troopers and went in it anyway.Even after all that,we would stay here again.It really wasn't the motel's fault for the windows being shot(although they could work on the pool's water quality).MoreShow less</t>
+  </si>
+  <si>
+    <t>We picked this Motel 6 because it was the closest to Seal Beach (with the scary exception of the Long Beach Motel6).We had never stayed there before and the exterior was clean &amp; nice.It was a good feeling because we booked 3 nights there (also saved a few $ by going online :)
+The check-in staff were friendly and no problems with our reservation,price,etc., and they let us check in early.
+We were really surprised when we entered the room,it was clean and the towels were wrapped like at a 4-5 star hotel,and the toilet paper had the "v" fold.My wife really liked that it had a bathtub for our girls and we even used it a couple times(very nice after a day at the beach).It didn't have central air conditioning,which we were grateful to have the older individual a/c as they seem to work better(especially wth this very humid summer we are having).
+Now for the down side...We had a room by the street,which was fine since we like easy access to our car(for surfboards &amp; beach gear etc).Usually Motel6 has parking right in front of your room,but this one has it across from it.So,many trips back and forth.
+And then...around 2am we heard a strange noise like ice cracking or glass slowly breaking.My husband checked outside but didn't notice anything.In the morning he realized someone had shot out ours and 6 other room's windows with a BB gun!They...We picked this Motel 6 because it was the closest to Seal Beach (with the scary exception of the Long Beach Motel6).We had never stayed there before and the exterior was clean &amp; nice.It was a good feeling because we booked 3 nights there (also saved a few $ by going online :)The check-in staff were friendly and no problems with our reservation,price,etc., and they let us check in early.We were really surprised when we entered the room,it was clean and the towels were wrapped like at a 4-5 star hotel,and the toilet paper had the "v" fold.My wife really liked that it had a bathtub for our girls and we even used it a couple times(very nice after a day at the beach).It didn't have central air conditioning,which we were grateful to have the older individual a/c as they seem to work better(especially wth this very humid summer we are having).Now for the down side...We had a room by the street,which was fine since we like easy access to our car(for surfboards &amp; beach gear etc).Usually Motel6 has parking right in front of your room,but this one has it across from it.So,many trips back and forth.And then...around 2am we heard a strange noise like ice cracking or glass slowly breaking.My husband checked outside but didn't notice anything.In the morning he realized someone had shot out ours and 6 other room's windows with a BB gun!They didn't penetrate both layers of glass thankfully,but kind of scary!Hubby went to the front desk and told them about it.They cleaned another room quickly for us,and it was by the pool in the inside courtyard.We were impressed that they acted so quickly without us even asking for another room(although we would have gotten to it!)It was nice having a room with a view of the pool.The pool had a slight tinge of green,but we were troopers and went in it anyway.Even after all that,we would stay here again.It really wasn't the motel's fault for the windows being shot(although they could work on the pool's water quality).More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +983,1053 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_563.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_563.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jacsonl286</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>jwilk21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r459657863-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Kristyn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r412503029-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Rachel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r364808487-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>The only reason I decided to give this Motel 6 two stars instead of one is bc of the seemingly new renovations and low price. However, I don't think I'll ever reserve a room for my fiance and myself here again! Our first stay we reserved a room for a single night and requested a late checkout and were given until 1 PM. I then reserved a room for a single night about a week later requesting a late checkout and was told 12 PM. That was a little surprising, but I assumed that the guidelines may have changed bc things like that happen. I work graveyard shifts and turned in at around 3 AM and woke up to the phone ringing at 11 AM as a reminder that checkout was 11AM! I groggily requested a late checkout once again and was told we had until 11:30! WHAT?! Once I explained that we were already given until noon the female manager (this is who she described herself to be) hung up the phone. I called back and told her that I would just pay for another night and would be at the front desk in about 15 minutes. Minutes later she was POUNDING on the door and YELLING for us to open up. (I know this sounds like an exaggeration, but I assure you, it is not.) We were a little disoriented and as I scrambled to put on some...The only reason I decided to give this Motel 6 two stars instead of one is bc of the seemingly new renovations and low price. However, I don't think I'll ever reserve a room for my fiance and myself here again! Our first stay we reserved a room for a single night and requested a late checkout and were given until 1 PM. I then reserved a room for a single night about a week later requesting a late checkout and was told 12 PM. That was a little surprising, but I assumed that the guidelines may have changed bc things like that happen. I work graveyard shifts and turned in at around 3 AM and woke up to the phone ringing at 11 AM as a reminder that checkout was 11AM! I groggily requested a late checkout once again and was told we had until 11:30! WHAT?! Once I explained that we were already given until noon the female manager (this is who she described herself to be) hung up the phone. I called back and told her that I would just pay for another night and would be at the front desk in about 15 minutes. Minutes later she was POUNDING on the door and YELLING for us to open up. (I know this sounds like an exaggeration, but I assure you, it is not.) We were a little disoriented and as I scrambled to put on some clothes, I asked her to give me a second to do so; she literally BARGED IN. (We had the chain on the door so she was only able to open it about an inch. This seemed to make her angry.) She then began to shout for us to "open up now!" I'm not sure what we did to enrage this woman, but this was so incredibly out of line! Now, I'm sure that there have been instances in which her behavior was warranted, but this was not one. She went from 0 to 100. And for what? I still don't know. As if our experience couldn't have been worse, once I got home, I discovered that my car had been robbed in their parking lot! Ugh. Replacing everything that was stolen cost me hundreds of dollars. =[So, all in all, I would say: if you're thinking of staying here, stay at your own risk! You've been warned..****Oh yeah, WiFi is $2.99 a night per device. Weak signal.// No hair blow dryer// No iron// dinky towels// No shampoo or conditioner// I found an old, used toothbrush in the bathroom.. ewMore</t>
   </si>
   <si>
+    <t>Oscar M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r360795297-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Jose M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r360466415-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>SheenaEVasquez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r251681951-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>The place smelled horrible like pea everywhere outside. One of the staff members named Anna has the worst attude. One of her comments were and I quote "You are a visitor in my house, my rules." This was told to a woman who was disabled with a walker and wanted to put a microwave in her room cause it was hard for her to walk. I was in the office when she told the old woman that. On top of everything else there were fights and arguments that all hours of the night. So don't expect to sleep. I saw people selling drugs, people would walk up to me asking if I knew where to get drugs, and people in the parking lot doing drugs. I had to call the police cause some woman was using my car hood to snort lines off of. If you want a family friendly Motel6 it's not this one. But the Stanton Motel6 is a much better. I hope they clean this motel up cause I will never go back to this one. They are losing repeat costumers.More</t>
   </si>
   <si>
+    <t>Pete P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r228981116-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t xml:space="preserve">Old, well used, cheap, locals residing here, def a bit sketchy but it was quiet at night. Probably not a great place for the kids. Stayed here Sunday to Monday. 3 restaurants and a bar and a liquor store across the street. Convenient to retail shopping within a few blocks. </t>
   </si>
   <si>
+    <t>StevensAmerah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r206201458-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>I booked a room over travelocity thinking everything was okay. When I got there the clerk asked if I reserved a room, I told her yes. I checked in, went straight to my room. I then checked my account balance on my card and realized that I had more money taken out than what should've been. Come to find out the clerk charged me twice for the same reservation. After what felt like endless minutes, it took 2 hours for the company to finally give me my refund for the money they took. Which I will NOT be getting back until Tuesday or Wednesday. Not only that but if you want to sight see you have to drive 30-45 miles in evwey direction just to see what California has to offer. The location was terrible. I can defiantly say this was the most biggest pain my butt. So if you decide to book this hotel, make sure sight seeing is not on your list because you'll be spending hours driving back and forth.More</t>
   </si>
   <si>
+    <t>cmbutterfly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r154915143-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>kindalikeit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r136980606-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>My husband and I had to make a last minute trip to Orange County and so began our search for a hotel/motel for that same night. Our first choices were all booked, so we began looking for what was available...we knew we had a chance with motel 6 and so based on the current reviews for this motel, we decided to call and reserve. We were pleasantly surprised! Althought not in the best area (but you can't really tell), the staff was very friendly, quiet for the most part (during the day you can hear kids in the pool but no big deal-defintely quiet at night and in the morning) and VERY CLEAN! Bathroom looked like it was thoroughly cleaned. The sheets on the bed were clean and neat.There were plenty of families as guests so it did not seem like a shady motel at all. Add the value of the price...way better than other motel 6 previously stayed in.More</t>
   </si>
   <si>
+    <t>pastorrichard2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r121969718-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>Clean rooms when they remember to clean them and when you being to there attention that they forgot yours that day , your a bad customer....its ok the let every drug addict and hooker that the surrrounding motels won't rent to and give them there own little area in the back to operate but when you cut your finger and ask for a bandaid they five you a card with risk managements phone number and 86 you from there property...it ok  terrible policies and many unhappy customers ....more to follow.</t>
   </si>
   <si>
+    <t>IGigiI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r104084469-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>woowee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r102923403-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>CarolandClinton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r97625531-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>tamcatsl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r89955772-Motel_6_Westminster_North-Westminster_California.html</t>
   </si>
   <si>
@@ -457,6 +505,9 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>tikibycc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82618-r8347743-Motel_6_Westminster_North-Westminster_California.html</t>
@@ -987,43 +1038,47 @@
       <c r="A2" t="n">
         <v>11175</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1037,50 +1092,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11175</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1094,50 +1153,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11175</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1151,50 +1214,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11175</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1212,50 +1279,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11175</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1269,50 +1340,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11175</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1326,41 +1401,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11175</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1387,47 +1466,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11175</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -1446,41 +1529,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11175</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -1509,50 +1596,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11175</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1576,50 +1667,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11175</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1643,41 +1738,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11175</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -1706,50 +1805,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11175</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1773,50 +1876,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11175</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -1840,50 +1947,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11175</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -1907,50 +2018,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11175</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -1974,41 +2089,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11175</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -2027,7 +2146,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
